--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,7 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>crude</t>
   </si>
   <si>
     <t>sc</t>
@@ -67,7 +64,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>co</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,85 +73,103 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>nice</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>like</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -512,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7636986301369864</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,16 +667,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,16 +717,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5277777777777778</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4074074074074074</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3725490196078431</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8276762402088773</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -881,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3565891472868217</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C9">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -899,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3559322033898305</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -949,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2416107382550336</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -999,69 +1014,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L11">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <v>85</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.796875</v>
-      </c>
-      <c r="L11">
-        <v>102</v>
-      </c>
-      <c r="M11">
-        <v>102</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.007105943152454781</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <v>0.33</v>
-      </c>
-      <c r="F12">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3074</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.7875</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1307,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1338,16 +1329,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6058823529411764</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1359,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>134</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5941422594142259</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,15 +1376,15 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.575</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
         <v>23</v>
@@ -1411,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5694915254237288</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L27">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,33 +1506,189 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L30">
+        <v>53</v>
+      </c>
+      <c r="M30">
+        <v>53</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K30">
-        <v>0.4157303370786517</v>
-      </c>
-      <c r="L30">
+      <c r="K31">
+        <v>0.5491525423728814</v>
+      </c>
+      <c r="L31">
+        <v>162</v>
+      </c>
+      <c r="M31">
+        <v>162</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L32">
         <v>37</v>
       </c>
-      <c r="M30">
+      <c r="M32">
         <v>37</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>52</v>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L33">
+        <v>38</v>
+      </c>
+      <c r="M33">
+        <v>38</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
